--- a/data/trans_camb/P26_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P26_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,86</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,45</t>
+          <t>9,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>12,21</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,82</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>14,45</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 3,86</t>
+          <t>-4,44; 3,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 20,07</t>
+          <t>-2,43; 5,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 7,27</t>
+          <t>-2,17; 6,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 13,26</t>
+          <t>4,64; 45,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 9,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 9,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 25,13</t>
+          <t>2,64; 15,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 13,67</t>
+          <t>0,46; 9,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 5,9</t>
+          <t>-0,13; 8,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 11,79</t>
+          <t>5,42; 19,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 15,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 12,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 9,36</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 6,7</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 6,39</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,91; 27,7</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-29,03%</t>
+          <t>-37,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>161,21%</t>
+          <t>101,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>53,43%</t>
+          <t>117,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>181,9%</t>
+          <t>832,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>114,65%</t>
+          <t>245,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>133,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>124,11%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>322,34%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>122,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>160,25%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>124,6%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>124,15%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>480,84%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-89,36; 254,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 984,69</t>
+          <t>-70,49; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,76; 390,95</t>
+          <t>-56,85; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 699,27</t>
+          <t>38,52; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 207,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 226,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 417,4</t>
+          <t>12,2; 891,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,6; 309,87</t>
+          <t>-4,02; 683,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,48; 135,8</t>
+          <t>-10,1; 542,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,42; 287,39</t>
+          <t>44,4; 1088,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,93; 362,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,34; 283,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,4; 631,45</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 460,62</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 457,55</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>149,68; 1722,88</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,47</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,12</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,32</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,04</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 5,22</t>
+          <t>0,01; 4,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 7,68</t>
+          <t>0,55; 4,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 17,69</t>
+          <t>2,4; 6,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 13,84</t>
+          <t>0,93; 5,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 3,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 10,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 10,54</t>
+          <t>-0,47; 5,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 16,64</t>
+          <t>2,84; 9,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 2,72</t>
+          <t>3,4; 9,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 8,12</t>
+          <t>1,87; 8,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 11,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 12,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 4,28</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 5,8</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 7,22</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 6,13</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>273,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>70,55%</t>
+          <t>316,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>232,84%</t>
+          <t>595,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>178,09%</t>
+          <t>418,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-15,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,56%</t>
+          <t>75,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>72,66%</t>
+          <t>179,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-6,85%</t>
+          <t>195,66%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>152,68%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>74,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>85,94%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>108,88%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>197,49%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>255,2%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>194,05%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,4; 214,41</t>
+          <t>-44,83; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,29; 320,24</t>
+          <t>-31,73; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>57,64; 788,83</t>
+          <t>55,02; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,87; 534,58</t>
+          <t>6,03; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,62; 43,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 113,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 106,13</t>
+          <t>-12,57; 248,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,44; 168,52</t>
+          <t>51,11; 477,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,96; 37,75</t>
+          <t>64,7; 523,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 107,78</t>
+          <t>38,1; 420,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,98; 159,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,18; 171,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 323,98</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>55,9; 430,4</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>112,3; 571,49</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>65,68; 468,43</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,57</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,83</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,88</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>4,25</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6,23</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>3,95</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,64; 4,15</t>
+          <t>-3,8; 2,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 9,68</t>
+          <t>-2,41; 3,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 14,69</t>
+          <t>0,97; 7,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 0,61</t>
+          <t>-2,65; 3,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 11,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 17,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 20,48</t>
+          <t>1,08; 6,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,11; 28,33</t>
+          <t>4,39; 9,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 5,29</t>
+          <t>5,26; 10,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 11,44</t>
+          <t>4,32; 10,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 15,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 13,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 3,64</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 6,28</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>4,05; 8,45</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 6,25</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-32,22%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>133,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-61,56%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>58,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>129,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>167,89%</t>
+          <t>270,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>217,05%</t>
+          <t>552,43%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,1%</t>
+          <t>625,79%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>46,01%</t>
+          <t>574,92%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>80,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>52,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>73,47%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>194,9%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>286,15%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>181,29%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-76,56; 59,02</t>
+          <t>-74,86; 173,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,08; 131,75</t>
+          <t>-48,44; 235,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,99; 201,74</t>
+          <t>3,88; 435,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-93,73; 23,07</t>
+          <t>-58,02; 223,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 259,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,47; 434,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,76; 499,2</t>
+          <t>6,8; 1383,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,17; 697,91</t>
+          <t>119,17; 2758,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-56,41; 74,82</t>
+          <t>128,27; 2564,46</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-27,28; 155,32</t>
+          <t>125,75; 2560,4</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 198,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-22,11; 177,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-20,88; 282,96</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>64,69; 531,21</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>107,12; 702,76</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>49,09; 489,97</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 2,38</t>
+          <t>-1,46; 2,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 8,45</t>
+          <t>-0,51; 9,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 10,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,2</t>
+          <t>-0,59; 4,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 5,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,45; 9,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 13,97</t>
+          <t>-0,24; 4,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,01; 13,81</t>
+          <t>1,18; 7,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 3,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 8,08</t>
+          <t>2,36; 10,1</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,28; 2,93</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 6,89</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1,5; 5,98</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-13,91%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>49,44%</t>
+          <t>136,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>59,2%</t>
+          <t>97,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>76,31%</t>
+          <t>53,78%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>89,6%</t>
+          <t>111,28%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>55,87%</t>
+          <t>147,08%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>81,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>79,71%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>49,45%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>116,84%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>125,36%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,13; 49,16</t>
+          <t>-57,68; 224,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,93; 169,74</t>
+          <t>-45,75; 826,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 207,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 165,48</t>
+          <t>-41,05; 392,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,17; 61,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,02; 114,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,77; 154,62</t>
+          <t>-7,74; 163,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>35,53; 167,32</t>
+          <t>22,63; 260,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 44,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>16,89; 110,16</t>
+          <t>49,52; 312,19</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>35,56; 143,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>36,47; 137,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-11,38; 128,25</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>22,31; 284,04</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>40,11; 251,08</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5,97</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>4,97</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>5,34</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 1,9</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 3,74</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2,15; 5,5</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 9,0</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 4,73</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3,87; 7,09</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 7,61</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>4,72; 8,94</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 2,9</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 4,91</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 6,1</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 7,61</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>39,39%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>109,73%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>208,62%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>206,35%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>94,59%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>162,04%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>181,51%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>204,36%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>74,91%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>143,21%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>190,9%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>205,29%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-38,16; 142,26</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 264,59</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>54,59; 411,68</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>50,4; 572,97</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>32,91; 170,95</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>97,05; 270,05</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>105,7; 290,29</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>115,33; 314,67</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>26,55; 129,62</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>81,05; 221,48</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>113,68; 274,56</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>121,52; 327,28</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
